--- a/rocketpunch_bookmark.xlsx
+++ b/rocketpunch_bookmark.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quartz/Dropbox/text-mining-practice/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F960A30-2430-444B-9FFE-DDCC63F2D8F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="rocketpunch_01" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rocketpunch_01" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>date</t>
   </si>
@@ -40,7 +35,7 @@
     <t>special</t>
   </si>
   <si>
-    <t>01/17 마감</t>
+    <t>01/31 마감</t>
   </si>
   <si>
     <t>케이씨 ML2(KC ML2)</t>
@@ -151,9 +146,6 @@
     <t>Python ∙ Git ∙ Pandas ∙ scikit-learn ∙ TensorFlow ∙ PyTorch ∙ machine-learning ∙ deep-learning ∙ Django ∙ django-orm ∙ PostgreSQL ∙ D3.js ∙ Data Science ∙ jupyter notebook</t>
   </si>
   <si>
-    <t>01/31 마감</t>
-  </si>
-  <si>
     <t>데이터크런치(Datacrunch)</t>
   </si>
   <si>
@@ -164,18 +156,6 @@
   </si>
   <si>
     <t>MySQL ∙ Python ∙ SQL ∙ 빅데이터 ∙ 빅데이터 분석/인프라/가시화 ∙ 빅데이터 엔지니어 ∙ 빅데이터 마이닝 ∙ 데이터분석 ∙ 데이터 ∙ 데이터베이스 ∙ Big Data ∙ Data Science ∙ 데이터사이언스 ∙ 데이터마이닝 ∙ 머신러닝 ∙ 인공지능 ∙ 딥러닝 ∙ 기계학습 ∙ Datamining ∙ deep-learning ∙ R데이터분석 ∙ jupyter ∙ jupyter notebook ∙ R shiny ∙ 마케팅분석 ∙ Marketing Analysis ∙ scm</t>
-  </si>
-  <si>
-    <t>01/18 마감</t>
-  </si>
-  <si>
-    <t>랩투아이(Lab2AI)</t>
-  </si>
-  <si>
-    <t>스포츠 데이터 분석 및 로봇기사 알고리즘 개발</t>
-  </si>
-  <si>
-    <t>Python ∙ Amazon AWS ∙ Git ∙ deep-learning ∙ TensorFlow ∙ PyTorch ∙ 인공지능 ∙ 기계학습 ∙ 머신러닝 ∙ Machine Learning  ∙ Data Science ∙ artificial-intelligence ∙ NLP ∙ 로봇기사</t>
   </si>
   <si>
     <t>마이셀럽스(mycelebs)</t>
@@ -205,32 +185,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -245,43 +216,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -569,20 +523,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
-  <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.83203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
@@ -605,7 +557,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -628,7 +580,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -651,7 +603,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -674,7 +626,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -697,7 +649,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -720,7 +672,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -743,7 +695,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -766,99 +718,75 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
         <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
         <v>54</v>
       </c>
-      <c r="G11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" t="s">
-        <v>59</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>